--- a/Sportyeez/TestData/TestData.xlsx
+++ b/Sportyeez/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINIT SINGH\Desktop\Tek Pyramid\My Projects\SCM\Sportyeez\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINIT SINGH\git\Sportyeez\Sportyeez\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEC012-C35E-416F-AA68-9BDDC8CC2D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E463BC5-AEA4-4C2E-8278-8EA6FB9B9368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="190" windowWidth="15490" windowHeight="9810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>adminAddProductTest</t>
+  </si>
+  <si>
+    <t>manufacturerManageQuantity</t>
+  </si>
+  <si>
+    <t>quantityprice</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>pagent</t>
   </si>
 </sst>
 </file>
@@ -547,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,7 +776,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -807,7 +819,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -837,17 +849,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1794EC-4F92-4673-BE30-E7B41FB6333C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
@@ -922,6 +934,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sportyeez/TestData/TestData.xlsx
+++ b/Sportyeez/TestData/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINIT SINGH\git\Sportyeez\Sportyeez\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E463BC5-AEA4-4C2E-8278-8EA6FB9B9368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACBF881-FFC2-4C77-BADD-8203A47945CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="190" windowWidth="15490" windowHeight="9810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="190" windowWidth="15490" windowHeight="9810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
     <sheet name="Manufacturer" sheetId="2" r:id="rId2"/>
+    <sheet name="Retailer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -175,13 +176,25 @@
     <t>manufacturerManageQuantity</t>
   </si>
   <si>
-    <t>quantityprice</t>
-  </si>
-  <si>
     <t>143</t>
   </si>
   <si>
     <t>pagent</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>retailerLoginTest</t>
+  </si>
+  <si>
+    <t>createAOrder</t>
+  </si>
+  <si>
+    <t>manufacturerAddProductTest</t>
+  </si>
+  <si>
+    <t>manufacturerLoginTest</t>
   </si>
 </sst>
 </file>
@@ -559,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -851,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1794EC-4F92-4673-BE30-E7B41FB6333C}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -913,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -945,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -956,10 +969,75 @@
         <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4589FEE1-7517-40E7-85DC-7619D7A80863}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
